--- a/data/trans_camb/P11_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P11_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,85</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 7,07</t>
+          <t>-9,41; 8,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 7,85</t>
+          <t>-11,96; 4,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 6,38</t>
+          <t>-9,65; 7,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 5,37</t>
+          <t>-9,49; 7,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 4,71</t>
+          <t>-10,16; 6,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,55</t>
+          <t>-12,76; 4,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 5,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 4,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 3,46</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>-16,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>-8,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,37%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>-17,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-9,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 47,11</t>
+          <t>-43,31; 62,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 54,64</t>
+          <t>-51,65; 35,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 35,05</t>
+          <t>-47,08; 58,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 29,82</t>
+          <t>-34,81; 42,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 27,74</t>
+          <t>-38,01; 38,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 26,21</t>
+          <t>-46,43; 27,21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-30,87; 29,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-35,72; 23,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-37,16; 20,98</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 13,34</t>
+          <t>-10,83; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 12,5</t>
+          <t>-10,27; 10,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 10,8</t>
+          <t>-8,29; 12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 7,38</t>
+          <t>-6,56; 10,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 10,0</t>
+          <t>-8,23; 9,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 8,14</t>
+          <t>-11,39; 6,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 7,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 6,54</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 6,84</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>-16,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 119,18</t>
+          <t>-59,68; 123,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 106,2</t>
+          <t>-53,23; 121,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 58,5</t>
+          <t>-46,6; 140,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 40,66</t>
+          <t>-32,18; 85,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 63,17</t>
+          <t>-39,03; 74,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 52,62</t>
+          <t>-54,62; 50,82</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-30,5; 61,97</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-36,75; 54,36</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,15; 56,98</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-23,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-20,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>-20,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>18,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,48</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,47</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 2,47</t>
+          <t>-61,49; 3,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 3,54</t>
+          <t>-60,25; 5,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 15,05</t>
+          <t>-59,95; 7,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 22,35</t>
+          <t>-8,46; 22,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 5,06</t>
+          <t>-0,86; 35,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 8,33</t>
+          <t>-5,36; 26,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-39,66; 5,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-34,33; 14,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-37,04; 10,28</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-62,06%</t>
+          <t>-87,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-56,93%</t>
+          <t>-78,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>-76,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73,09%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>186,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>99,88%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-46,56%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,48%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-30,03%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 84,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 218,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 313,35</t>
+          <t>-62,54; 698,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 57,64</t>
+          <t>-14,76; 1061,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 99,87</t>
+          <t>-44,07; 852,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-98,15; 97,72</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-81,3; 232,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-90,53; 166,64</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 6,42</t>
+          <t>-11,0; 3,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 6,22</t>
+          <t>-12,15; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,43</t>
+          <t>-10,45; 4,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,82</t>
+          <t>-4,38; 6,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 4,08</t>
+          <t>-3,91; 7,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,91</t>
+          <t>-7,65; 3,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 3,71</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 3,58</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 2,79</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>-16,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-21,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>-10,58%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-4,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-5,93%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-10,76%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 44,77</t>
+          <t>-47,9; 30,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 46,47</t>
+          <t>-54,9; 21,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 29,96</t>
+          <t>-46,17; 34,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 25,05</t>
+          <t>-20,81; 41,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 23,33</t>
+          <t>-17,8; 46,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 22,82</t>
+          <t>-35,53; 24,35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-26,77; 24,85</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; 22,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 17,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
